--- a/Uebung_SPCundVarianzanalyse/USB2.xlsx
+++ b/Uebung_SPCundVarianzanalyse/USB2.xlsx
@@ -132,7 +132,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -180,34 +180,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>35.99</v>
+        <v>17.995</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>36.82</v>
+        <v>18.41</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>37.46</v>
+        <v>18.73</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>36.84</v>
+        <v>18.42</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>36.62</v>
+        <v>18.31</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>36.62</v>
+        <v>18.31</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>37.03</v>
+        <v>18.515</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>36.24</v>
+        <v>18.12</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>35.77</v>
+        <v>17.885</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>35.15</v>
+        <v>17.575</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
